--- a/Game/Resource/Object/Player.xlsx
+++ b/Game/Resource/Object/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC874F-FF74-429F-BE8D-FD563972E374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C7843-C1F5-4BC9-A329-AFC10974C21F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>calc_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,29 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导出类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +134,18 @@
   </si>
   <si>
     <t>dic&lt;int, int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only_getter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,22 +471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="2" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -509,309 +495,278 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/Game/Resource/Object/Player.xlsx
+++ b/Game/Resource/Object/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C7843-C1F5-4BC9-A329-AFC10974C21F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930A418-C1D2-435E-BCC0-91037B31E54D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heroes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,30 +97,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list&lt;Hero&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemsInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heroesDicInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dic&lt;int, int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,11 +113,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>only_getter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemsInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroesDicInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +478,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,59 +493,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -550,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -564,10 +568,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -576,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -590,10 +594,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -602,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -616,10 +620,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -628,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -642,10 +646,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -654,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -668,10 +672,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -680,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -694,10 +698,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -706,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -720,10 +724,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -732,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -746,10 +750,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -758,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>

--- a/Game/Resource/Object/Player.xlsx
+++ b/Game/Resource/Object/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930A418-C1D2-435E-BCC0-91037B31E54D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7C27E-F2CA-45E2-B262-F40051117B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,6 +778,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game/Resource/Object/Player.xlsx
+++ b/Game/Resource/Object/Player.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7C27E-F2CA-45E2-B262-F40051117B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D09C7B-46B4-4D1A-864C-FFAD76C546DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackBoost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,14 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -549,7 +558,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -802,6 +811,32 @@
       </c>
       <c r="H14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Resource/Object/Player.xlsx
+++ b/Game/Resource/Object/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D09C7B-46B4-4D1A-864C-FFAD76C546DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1523DD-76C3-48C7-A27F-BA9C3F51471A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Game/Resource/Object/Player.xlsx
+++ b/Game/Resource/Object/Player.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1523DD-76C3-48C7-A27F-BA9C3F51471A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430E2AD-CF26-4EBF-8B67-4816EDF80537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dic&lt;int, Hero&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>AttackBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic&lt;uint, Hero&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,59 +506,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/Game/Resource/Object/Player.xlsx
+++ b/Game/Resource/Object/Player.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430E2AD-CF26-4EBF-8B67-4816EDF80537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A8107-BEF4-4B9E-9AD8-FA0550C9DFDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,18 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list&lt;Hero&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dic&lt;int, int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attr_format</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,31 +121,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemsInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroesDicInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackBoost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dic&lt;uint, Hero&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic&lt;uint, Item&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,59 +474,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -567,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -581,10 +549,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -593,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -607,10 +575,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -633,11 +601,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -645,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -659,10 +627,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -671,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -685,10 +653,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -697,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -706,136 +674,6 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
         <v>0</v>
       </c>
     </row>
